--- a/medicine/Psychotrope/Pêcheresse/Pêcheresse.xlsx
+++ b/medicine/Psychotrope/Pêcheresse/Pêcheresse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%AAcheresse</t>
+          <t>Pêcheresse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Pêcheresse (jeu de mots sur Pêche et pécheresse) est une bière belge de la catégorie des lambics aux fruits.
 Comme la Framboise ou la Kriek, les fruits sont fermentés dans le lambic. Le goût de la pêche étant moins marqué que la cerise ou la framboise, le pourcentage ajouté est supérieur. On compte environ 30 % de pêche dans le produit fini contre 10 à 25 % pour les fruits rouges. Le fruit peut être ajouté frais, surgelé ou en jus. La peau, si elle est présente, participe à la fermentation. On trouve aussi des marques dont le goût de fruit ne provient que d'arôme.
